--- a/biology/Zoologie/Acontias_lineatus/Acontias_lineatus.xlsx
+++ b/biology/Zoologie/Acontias_lineatus/Acontias_lineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acontias lineatus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acontias lineatus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans l'est de l'Afrique du Sud ;
 dans le sud de la Namibie.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un saurien vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un saurien vivipare.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 juin 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 juin 2012) :
 Acontias lineatus grayi Boulenger, 1887
 Acontias lineatus lineatus Peters, 1879</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique lineatus vient du latin lineatus, rayé, en référence à l'aspect de ce saurien[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique lineatus vient du latin lineatus, rayé, en référence à l'aspect de ce saurien.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1887 : Catalogue of the Lizards in the British Museum (Nat. Hist.) III. Lacertidae, Gerrhosauridae, Scincidae, Anelytropsidae, Dibamidae, Chamaeleontidae. London, p. 1-575 (texte intégral).
 Peters, 1879 : Über neue Amphibien des Kgl. zoologischen Museums (Euprepes, Acontias, Typhlops, Zamenis, Spilotes, Oedipus). Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1879, p. 773-779 (texte intégral).</t>
